--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\summer_fun_proj\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123CEA43-38CD-4CA5-86A1-1D5E7E1A51E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF1464-186B-4B3F-BF5B-C40D2BB58931}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="5865" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>命名/路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/start/start_bg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,6 +478,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,22 +508,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -790,7 +794,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,7 +816,7 @@
       <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="6" t="s">
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -820,12 +824,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -834,6 +838,9 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -844,12 +851,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -858,49 +865,49 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -914,7 +921,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -922,19 +929,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -948,7 +955,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -956,24 +963,24 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -992,7 +999,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1003,7 +1010,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1014,7 +1021,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1022,19 +1029,19 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1043,25 +1050,25 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1070,7 +1077,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>46</v>
       </c>
@@ -1079,13 +1086,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1093,18 +1100,18 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
@@ -1125,7 +1132,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1133,37 +1140,37 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
@@ -1172,12 +1179,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -1198,7 +1205,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1206,18 +1213,18 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -1225,7 +1232,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1233,7 +1240,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
@@ -1244,7 +1251,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1252,24 +1259,24 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
@@ -1284,13 +1291,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
@@ -1304,6 +1304,13 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\summer_fun_proj\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF1464-186B-4B3F-BF5B-C40D2BB58931}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEF8FBE-AA05-4276-A03E-14984D556080}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,22 @@
   </si>
   <si>
     <t>/start/start_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/openworld/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esergong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charlotjing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breamzhao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,6 +497,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,27 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,7 +810,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -824,12 +840,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -849,14 +865,17 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -865,49 +884,49 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -919,9 +938,15 @@
       <c r="C12" t="s">
         <v>18</v>
       </c>
+      <c r="D12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -929,24 +954,24 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -954,40 +979,40 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1023,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1009,39 +1034,42 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1049,26 +1077,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
       <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1077,7 +1108,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>46</v>
       </c>
@@ -1086,13 +1117,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1100,18 +1131,18 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
@@ -1132,7 +1163,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1140,37 +1171,37 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
@@ -1179,12 +1210,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -1205,7 +1236,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1213,18 +1244,18 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -1232,7 +1263,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1240,7 +1271,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
@@ -1251,7 +1282,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1259,24 +1290,24 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
@@ -1291,6 +1322,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
@@ -1304,13 +1342,6 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\summer_fun_proj\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEF8FBE-AA05-4276-A03E-14984D556080}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83975D7A-2206-4C91-BB7A-3F520B9C4891}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,18 @@
   </si>
   <si>
     <t>breamzhao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/start/start_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonfly_bubble_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonfly_bubble_out</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,6 +509,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,20 +539,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,7 +825,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -840,12 +855,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -865,17 +880,20 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="E4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -884,49 +902,49 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -946,7 +964,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -954,19 +972,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -980,7 +998,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -988,24 +1006,24 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1024,7 +1042,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1033,11 +1051,17 @@
       <c r="C24" t="s">
         <v>33</v>
       </c>
+      <c r="D24" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1049,27 +1073,30 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="D27" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1078,13 +1105,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
@@ -1093,13 +1120,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1108,7 +1135,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
         <v>46</v>
       </c>
@@ -1117,13 +1144,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1131,18 +1158,18 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
@@ -1163,7 +1190,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1171,37 +1198,37 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
@@ -1210,12 +1237,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -1236,7 +1263,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1244,18 +1271,18 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -1263,7 +1290,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1271,7 +1298,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
@@ -1282,7 +1309,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1290,24 +1317,24 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
@@ -1322,13 +1349,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
@@ -1342,6 +1362,13 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\summer_fun_proj\Unity\Assets\Audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\minigame\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83975D7A-2206-4C91-BB7A-3F520B9C4891}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB535B-0645-41C7-833B-AFCE3C66B4A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,15 +363,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/start/start_button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonfly_bubble_click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonfly_bubble_out</t>
+    <t>/dragonfly/waterdrop_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -507,9 +499,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -825,7 +814,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -855,12 +844,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -880,20 +869,17 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="E4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -902,49 +888,49 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -964,7 +950,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -972,19 +958,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -998,7 +984,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1006,24 +992,24 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1042,7 +1028,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1051,17 +1037,11 @@
       <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1073,30 +1053,27 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1105,13 +1082,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
@@ -1120,13 +1097,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1135,7 +1112,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
         <v>46</v>
       </c>
@@ -1144,13 +1121,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1158,18 +1135,21 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="D38" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
@@ -1190,7 +1170,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1198,37 +1178,37 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
+      <c r="A49" s="10"/>
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
@@ -1237,12 +1217,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -1263,7 +1243,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1271,18 +1251,18 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
+      <c r="A55" s="10"/>
       <c r="B55" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -1290,7 +1270,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1298,7 +1278,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
@@ -1309,7 +1289,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1317,24 +1297,24 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
+      <c r="A62" s="10"/>
       <c r="B62" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
+      <c r="A63" s="10"/>
       <c r="B63" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\minigame\Unity\Assets\Audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\summer_fun_proj\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EB535B-0645-41C7-833B-AFCE3C66B4A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D96AC4-0350-4D19-8DA0-9EA6D4D581EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,8 +363,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/start/start_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonfly_bubble_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonfly_bubble_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/dragonfly/waterdrop_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -501,6 +512,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -509,27 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -814,7 +831,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -844,12 +861,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -869,17 +886,20 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="E4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -888,49 +908,49 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -950,7 +970,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -958,19 +978,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -984,7 +1004,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -992,24 +1012,24 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1028,7 +1048,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1037,11 +1057,17 @@
       <c r="C24" t="s">
         <v>33</v>
       </c>
+      <c r="D24" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3" t="s">
         <v>34</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1053,27 +1079,30 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="D27" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
@@ -1082,13 +1111,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
@@ -1097,13 +1126,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="10"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1112,7 +1141,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="10"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="3" t="s">
         <v>46</v>
       </c>
@@ -1121,13 +1150,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1135,21 +1164,21 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>84</v>
+      <c r="D38" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
@@ -1170,7 +1199,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1178,37 +1207,37 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="10"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="10"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="10"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="10"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
@@ -1217,12 +1246,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -1243,7 +1272,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1251,18 +1280,18 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="10"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -1270,7 +1299,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1278,7 +1307,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="10"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
@@ -1289,7 +1318,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1297,24 +1326,24 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="10"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="10"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
@@ -1329,6 +1358,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
@@ -1342,13 +1378,6 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\summer_fun_proj\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D96AC4-0350-4D19-8DA0-9EA6D4D581EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4221802D-C399-459C-860B-629E8BC7343D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,6 +376,10 @@
   </si>
   <si>
     <t>/dragonfly/waterdrop_3</t>
+  </si>
+  <si>
+    <t>dragonfly_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -518,6 +522,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,20 +549,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,7 +835,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -861,12 +865,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -894,12 +898,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -908,49 +912,49 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="15"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -970,7 +974,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -978,19 +982,19 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1004,7 +1008,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1012,24 +1016,24 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1048,7 +1052,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1062,7 +1066,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1079,7 +1083,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1090,34 +1094,37 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
+      <c r="D30" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
@@ -1126,13 +1133,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>44</v>
       </c>
@@ -1141,7 +1148,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>46</v>
       </c>
@@ -1150,13 +1157,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1164,7 +1171,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
@@ -1173,12 +1180,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
@@ -1199,7 +1206,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1207,37 +1214,37 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
@@ -1246,12 +1253,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -1272,7 +1279,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1280,18 +1287,18 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -1299,7 +1306,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1307,7 +1314,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
@@ -1318,7 +1325,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1326,24 +1333,24 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
@@ -1358,13 +1365,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
@@ -1378,6 +1378,13 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\summer_fun_proj\Unity\Assets\Audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer_fun_proj\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4221802D-C399-459C-860B-629E8BC7343D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C0E69-6031-4AE6-B0A6-23AB2D5770AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>树叶摇动声音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊物件音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/openworld/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>esergong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +371,42 @@
   </si>
   <si>
     <t>dragonfly_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/openworld/openworld_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_book_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_book_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_book_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_surroundings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境鸟鸣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,6 +550,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,27 +582,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,19 +866,19 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.75" customWidth="1"/>
-    <col min="4" max="4" width="30.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -858,21 +889,21 @@
         <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -880,10 +911,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -891,72 +922,72 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="D6" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -967,404 +998,435 @@
         <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="D13" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="D14" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="D15" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>27</v>
+      <c r="D17" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="D18" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
+      <c r="D19" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="3" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B54" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B61" s="3" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="3" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="3" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
         <v>73</v>
-      </c>
-      <c r="C65" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
@@ -1378,13 +1440,6 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer_fun_proj\Unity\Assets\Audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\minigame\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3C0E69-6031-4AE6-B0A6-23AB2D5770AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D36A78-6840-44F7-99EF-FB4E3C1AD991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,46 +367,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dragonfly_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/openworld/openworld_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_book_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_book_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_book_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_surroundings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境鸟鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用其他水滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/growup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/dragonfly_right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/closebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/dropdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/bamboo_wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/dragonfly/waterdrop_3</t>
-  </si>
-  <si>
-    <t>dragonfly_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/openworld/openworld_bg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_book_click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_book_open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_book_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_noise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_river</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_surroundings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境鸟鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,6 +582,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,20 +609,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,20 +894,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.75" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -895,15 +924,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -914,7 +943,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -928,66 +957,66 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
@@ -998,104 +1027,104 @@
         <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="D15" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="D17" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="D18" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1135,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1120,8 +1149,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13"/>
       <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1129,7 +1158,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>34</v>
       </c>
@@ -1137,8 +1166,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1148,106 +1177,133 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="D28" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="D29" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="D30" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="D31" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="D32" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="E32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
       <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="D33" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
       <c r="B34" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C34" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="D34" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
       <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
+      <c r="D35" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="D36" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="D37" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="D38" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>26</v>
       </c>
@@ -1255,51 +1311,51 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="13"/>
       <c r="B44" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="13"/>
       <c r="B45" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="13"/>
       <c r="B46" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
       <c r="B47" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="13"/>
       <c r="B48" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
       <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
@@ -1307,20 +1363,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
@@ -1328,86 +1384,86 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
       <c r="B55" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="18" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
       <c r="B59" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="13"/>
       <c r="B62" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="13"/>
       <c r="B63" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="19" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>1</v>
       </c>
@@ -1420,13 +1476,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
@@ -1440,6 +1489,13 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\minigame\Unity\Assets\Audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目组\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D36A78-6840-44F7-99EF-FB4E3C1AD991}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,206 +242,238 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>击中柚子的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柚子落地的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柚子砸中小孩音效-“哎呦”叫声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杆子砸在地上的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女孩关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小女孩哭泣音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小女孩笑声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得柚子音效-奖励音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后获取苹果音效与此相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小女孩亲主角音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪跑动音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪叫声</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击猪音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果扔进猪圈音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小猪进入猪圈音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾背景音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舒缓或感人些都行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/scene0/scene0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/dragonfly_uncle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名/路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/start/start_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>esergong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charlotjing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breamzhao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/start/start_button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonfly_bubble_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonfly_bubble_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonfly_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/openworld/openworld_bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_book_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_book_open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_book_close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_walk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_surroundings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境鸟鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用其他水滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/growup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/dragonfly_right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/closebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/dropdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/bamboo_wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/waterdrop_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vkozcao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaddock_kid_noise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaddock_kid_ouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaddock_shaddock_fall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaddock_stick_shock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>挥动杆子的音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>击中柚子的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柚子落地的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柚子砸中小孩音效-“哎呦”叫声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杆子砸在地上的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女孩关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小女孩哭泣音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小女孩笑声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得柚子音效-奖励音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之后获取苹果音效与此相同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小女孩亲主角音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪跑动音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪叫声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击猪音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果扔进猪圈音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小猪进入猪圈音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏结局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结尾背景音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>舒缓或感人些都行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/scene0/scene0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dragonfly/dragonfly_uncle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命名/路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/start/start_bg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>esergong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charlotjing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>breamzhao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/start/start_button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonfly_bubble_click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonfly_bubble_out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragonfly_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/openworld/openworld_bg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_book_click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_book_open</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_book_close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_walk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_noise</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_river</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openworld_surroundings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境鸟鸣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用其他水滴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dragonfly/growup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dragonfly/dragonfly_right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dragonfly/closebook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dragonfly/dropdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dragonfly/bamboo_wind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dragonfly/waterdrop_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
+    <t>shaddock_shaddock_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaddock_shaddock_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shaddock_stick_fall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,6 +613,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,27 +645,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,11 +925,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -918,19 +952,19 @@
         <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -940,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -951,19 +985,19 @@
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -972,49 +1006,49 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>75</v>
+      <c r="D6" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1027,48 +1061,48 @@
         <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1079,45 +1113,45 @@
         <v>23</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1132,11 +1166,11 @@
         <v>30</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1146,16 +1180,16 @@
         <v>32</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1163,40 +1197,40 @@
         <v>34</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -1204,41 +1238,41 @@
         <v>39</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
       <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="13"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
       <c r="B34" s="3" t="s">
         <v>43</v>
       </c>
@@ -1246,11 +1280,11 @@
         <v>44</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
       <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
@@ -1258,118 +1292,145 @@
         <v>46</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
+      <c r="D43" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
       <c r="B44" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="3" t="s">
+      <c r="D45" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="3" t="s">
+      <c r="D46" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="3" t="s">
+      <c r="D47" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="3" t="s">
+      <c r="D48" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -1381,7 +1442,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1390,26 +1451,26 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -1417,17 +1478,17 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="16"/>
+      <c r="B59" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1436,46 +1497,53 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
+      <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="3" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="16"/>
+      <c r="B63" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
-      <c r="B63" s="3" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" t="s">
         <v>72</v>
-      </c>
-      <c r="C65" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
@@ -1489,13 +1557,6 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目组\Unity\Assets\Audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\minigame\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C172ED3-00F0-4B4E-BE31-AD9A34FA400A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,30 +407,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/dragonfly/growup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/dragonfly/dragonfly_right</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/dragonfly/closebook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dragonfly/dropdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dragonfly/bamboo_wind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dragonfly/waterdrop_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,13 +448,33 @@
   </si>
   <si>
     <t>shaddock_stick_fall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/dragonfly_growup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/dragonfly_closebook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/dragonfly_dropdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/dragonfly_bamboo_wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dragonfly/dragonfly_waterdrop_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -616,6 +617,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -631,20 +644,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,11 +926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -959,12 +960,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -992,12 +993,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -1006,49 +1007,49 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1068,7 +1069,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1079,7 +1080,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1088,7 +1089,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1097,7 +1098,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1117,7 +1118,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1128,7 +1129,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1137,7 +1138,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>93</v>
       </c>
@@ -1146,12 +1147,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1170,7 +1171,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1184,7 +1185,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1201,7 +1202,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1212,25 +1213,25 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1243,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1251,7 +1252,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
@@ -1263,16 +1264,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="3" t="s">
         <v>43</v>
       </c>
@@ -1280,11 +1281,11 @@
         <v>44</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
@@ -1292,47 +1293,47 @@
         <v>46</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1348,7 +1349,7 @@
         <v>52</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1357,63 +1358,63 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="3" t="s">
         <v>56</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
@@ -1425,12 +1426,12 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -1451,7 +1452,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -1459,18 +1460,18 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -1478,7 +1479,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -1486,7 +1487,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="3" t="s">
         <v>66</v>
       </c>
@@ -1497,7 +1498,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="14" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -1505,24 +1506,24 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
@@ -1537,13 +1538,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
@@ -1557,6 +1551,13 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\minigame\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C172ED3-00F0-4B4E-BE31-AD9A34FA400A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C63FD-776C-43E5-A239-B37657448A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="113">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,6 +468,13 @@
   </si>
   <si>
     <t>/dragonfly/dragonfly_waterdrop_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charlotjing</t>
+  </si>
+  <si>
+    <t>charlotjing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,6 +624,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,27 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -960,12 +967,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -993,12 +1000,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -1007,49 +1014,49 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="20"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1069,7 +1076,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1080,7 +1087,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1089,7 +1096,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1098,7 +1105,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1118,7 +1125,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1129,7 +1136,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1138,7 +1145,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="3" t="s">
         <v>93</v>
       </c>
@@ -1147,12 +1154,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1171,7 +1178,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1185,7 +1192,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1202,7 +1209,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1213,7 +1220,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
@@ -1222,7 +1229,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
@@ -1231,7 +1238,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -1243,7 +1250,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1252,7 +1259,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
@@ -1264,7 +1271,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
@@ -1273,7 +1280,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="3" t="s">
         <v>43</v>
       </c>
@@ -1285,7 +1292,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
@@ -1297,7 +1304,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
@@ -1306,7 +1313,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1317,7 +1324,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="14"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
@@ -1326,12 +1333,12 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="E39" t="s">
         <v>97</v>
       </c>
@@ -1358,7 +1365,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1369,7 +1376,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="14"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="3" t="s">
         <v>102</v>
       </c>
@@ -1378,7 +1385,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="14"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
@@ -1387,7 +1394,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
@@ -1396,7 +1403,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="14"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="3" t="s">
         <v>56</v>
       </c>
@@ -1405,7 +1412,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="3" t="s">
         <v>57</v>
       </c>
@@ -1413,8 +1420,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
@@ -1425,20 +1432,23 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
@@ -1446,86 +1456,89 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="14"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
       <c r="B55" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="14"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="16"/>
       <c r="B59" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="14"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
       <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="14"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="16"/>
       <c r="B63" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>1</v>
       </c>
@@ -1535,9 +1548,19 @@
       <c r="C65" t="s">
         <v>72</v>
       </c>
+      <c r="E65" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
@@ -1551,13 +1574,6 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\minigame\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4C63FD-776C-43E5-A239-B37657448A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BEF5C6-3333-4CDC-BFA8-F9A8ECEBBC08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,6 +475,38 @@
   </si>
   <si>
     <t>charlotjing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ending/ending_bgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/girl/girl_cry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/girl/girl_laugh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/girl/girl_kiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pig/pig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pig/pig_run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pig/pig_click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pig/throwapple</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -624,6 +656,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,20 +686,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -967,12 +1002,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1000,12 +1035,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -1014,49 +1049,49 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1076,7 +1111,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1087,7 +1122,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1096,7 +1131,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1105,7 +1140,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1125,7 +1160,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1136,7 +1171,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1145,7 +1180,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="3" t="s">
         <v>93</v>
       </c>
@@ -1154,12 +1189,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1178,7 +1213,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1192,7 +1227,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
         <v>33</v>
       </c>
@@ -1209,7 +1244,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1220,7 +1255,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
@@ -1229,7 +1264,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
@@ -1238,7 +1273,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
@@ -1250,7 +1285,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
@@ -1259,7 +1294,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
@@ -1271,7 +1306,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
@@ -1280,7 +1315,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="3" t="s">
         <v>43</v>
       </c>
@@ -1292,7 +1327,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
@@ -1304,7 +1339,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="3" t="s">
         <v>47</v>
       </c>
@@ -1313,7 +1348,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1324,7 +1359,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
@@ -1333,12 +1368,12 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" t="s">
         <v>97</v>
       </c>
@@ -1365,7 +1400,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1376,7 +1411,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="3" t="s">
         <v>102</v>
       </c>
@@ -1385,7 +1420,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="3" t="s">
         <v>54</v>
       </c>
@@ -1394,7 +1429,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="3" t="s">
         <v>55</v>
       </c>
@@ -1403,7 +1438,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="3" t="s">
         <v>56</v>
       </c>
@@ -1412,7 +1447,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="3" t="s">
         <v>57</v>
       </c>
@@ -1421,7 +1456,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
@@ -1433,12 +1468,12 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
       <c r="E50" t="s">
         <v>111</v>
       </c>
@@ -1455,6 +1490,9 @@
       <c r="B52" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="D52" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
@@ -1462,26 +1500,32 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="D54" s="11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="D55" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
       <c r="E56" t="s">
         <v>111</v>
       </c>
@@ -1492,17 +1536,23 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="D58" s="5" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1511,32 +1561,41 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="D61" s="5" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="D62" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="D63" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
@@ -1548,19 +1607,15 @@
       <c r="C65" t="s">
         <v>72</v>
       </c>
+      <c r="D65" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="E65" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
@@ -1574,6 +1629,13 @@
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A43:A49"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Audio/Audio.xlsx
+++ b/Unity/Assets/Audio/Audio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\minigame\Unity\Assets\Audio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目组\Unity\Assets\Audio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BEF5C6-3333-4CDC-BFA8-F9A8ECEBBC08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE2B80E-E809-4D55-A98A-A9B01D2EB242}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="124">
   <si>
     <t>主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t>/pig/throwapple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vkozcao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openworld_windowclick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,6 +671,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -667,27 +706,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -969,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1002,12 +1020,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
@@ -1035,12 +1053,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -1049,49 +1067,49 @@
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1111,7 +1129,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1122,7 +1140,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1131,7 +1149,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1140,7 +1158,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +1178,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1171,7 +1189,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1198,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
         <v>93</v>
       </c>
@@ -1189,453 +1207,468 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
-      <c r="B29" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="3" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
+      <c r="B32" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
-      <c r="B33" s="3" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="19"/>
+      <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
-      <c r="B34" s="3" t="s">
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="15"/>
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
-      <c r="B38" s="3" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="19"/>
+      <c r="B39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D39" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="20" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="3" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="19"/>
+      <c r="B45" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="3" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="19"/>
+      <c r="B46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="3" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="19"/>
+      <c r="B47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="15"/>
-      <c r="B47" s="3" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="19"/>
+      <c r="B48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="15"/>
-      <c r="B48" s="3" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="3" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="19"/>
+      <c r="B50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>62</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D50" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="12" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" t="s">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D55" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="15"/>
-      <c r="B55" s="3" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="19"/>
+      <c r="B56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D56" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" t="s">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="3" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="19"/>
+      <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D60" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D62" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="15"/>
-      <c r="B62" s="3" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="19"/>
+      <c r="B63" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D63" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="15"/>
-      <c r="B63" s="3" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="19"/>
+      <c r="B64" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D64" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D66" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A62:A64"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A61:A63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
